--- a/Test Execution.xlsx
+++ b/Test Execution.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\opencart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F418E9C4-464E-403B-A0C4-D966295A32A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4006F393-4C49-41AD-92C6-35A2DAB758AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="15" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
   <sheets>
     <sheet name="TS_001 (Register)" sheetId="2" r:id="rId1"/>
@@ -29,21 +29,11 @@
     <sheet name="TS_010.1 (Sub Desktop PC) " sheetId="15" r:id="rId14"/>
     <sheet name="TS_010.2 (Sub Desktop Mac)" sheetId="13" r:id="rId15"/>
     <sheet name="TS_011 (Cart)" sheetId="16" r:id="rId16"/>
-    <sheet name="TS_011 (Cart) (2)" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -120,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="960">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -3437,6 +3427,409 @@
     <t>1. Enter the old registered email address.
 2. Enter password.
 3.click on login button</t>
+  </si>
+  <si>
+    <t>1. User has been redirected to "Edit account information page".
+2. Editable fields "Password and confirm password" have been displayed.</t>
+  </si>
+  <si>
+    <t>Warning is displayed about the "Password" field is empty.</t>
+  </si>
+  <si>
+    <t>Warning is displayed about the "Comfirm Password" field is empty.</t>
+  </si>
+  <si>
+    <t>Warning is displayed about the "Password and Comfirm Password" field.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Suggestion should be displayed and the password is saved </t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Password has been changed with the given updated input.</t>
+  </si>
+  <si>
+    <t>User logged in to the app and directed to home page.</t>
+  </si>
+  <si>
+    <t>Warning is displayed about th incorrect password</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>1. Click on the My Account  button to see the dropdown data.
+2. Click on the "Account" option.
+3. Click on the "Change Password" link/button
+4. Use Old Password
+5. Click on the continue button.</t>
+  </si>
+  <si>
+    <t>1. User is redirected to "Account &gt; Address Book" page.</t>
+  </si>
+  <si>
+    <t>message is displayed with "you have no addresses in your account". With back and new address button.</t>
+  </si>
+  <si>
+    <t>user has been directed to the page of add address.</t>
+  </si>
+  <si>
+    <t>1.All the region according to the country selected has been  displayed.
+2. The address is added with a notification that the address is added.</t>
+  </si>
+  <si>
+    <t>1.All the region according to the country selected has been displayed.
+2. The address has been added with a notification that the address is added.</t>
+  </si>
+  <si>
+    <t>Warning has been displayed below every respective fields according to their limitations.</t>
+  </si>
+  <si>
+    <t>No warning is displayed and the post code is saved</t>
+  </si>
+  <si>
+    <t>the has been  displayed with an edit and delete icon.</t>
+  </si>
+  <si>
+    <t>User is  able to edit the address.</t>
+  </si>
+  <si>
+    <t>Message has been displayed and the existing address is edited with the new one.</t>
+  </si>
+  <si>
+    <t>Warning has displayed about "user must have atleast one address"</t>
+  </si>
+  <si>
+    <t>the address is deleted after clicking the delete icon</t>
+  </si>
+  <si>
+    <t>No confirmation message is displayed and the address is deleted</t>
+  </si>
+  <si>
+    <t>User is directed to Wishl List page.</t>
+  </si>
+  <si>
+    <t>0 is displayed in the bracket as there is no wish added yet.</t>
+  </si>
+  <si>
+    <t>Value is mentioned according to the number of wishes added.</t>
+  </si>
+  <si>
+    <t>message is displayed in the page about no wish added in the wish list</t>
+  </si>
+  <si>
+    <t>User is directed to Account section of the app.</t>
+  </si>
+  <si>
+    <t>All the mentioned details are displayed properly</t>
+  </si>
+  <si>
+    <t>The The price has been  displayed in US Dollar.</t>
+  </si>
+  <si>
+    <t>The The price has been  displayed in Euro.</t>
+  </si>
+  <si>
+    <t>The The price has been  displayed in Pound Sterling.</t>
+  </si>
+  <si>
+    <t>Message is displayed about the addition of the item added to cart.</t>
+  </si>
+  <si>
+    <t>the product has been deleted with the notifiction the item hs been removed</t>
+  </si>
+  <si>
+    <t>User has beendirected to Account section of the app.</t>
+  </si>
+  <si>
+    <t>User has been directed to shopping Cart page.</t>
+  </si>
+  <si>
+    <t>Message is dispalyed "your shopping cart is empty"</t>
+  </si>
+  <si>
+    <t>user is redirected to home page of the app</t>
+  </si>
+  <si>
+    <t>Message has been  displayed you have updated your cart</t>
+  </si>
+  <si>
+    <t>Message is  displayed "please select valid quantity".</t>
+  </si>
+  <si>
+    <t>Item has beem removed and shopping cart becomes empty.</t>
+  </si>
+  <si>
+    <t>The The price has been  displayed in Euro .</t>
+  </si>
+  <si>
+    <t>The Amount is mentioned in US Dollar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Amount is mentioned in Euro </t>
+  </si>
+  <si>
+    <t>The Amount is mentioned in Pound Sterling</t>
+  </si>
+  <si>
+    <t>Input field has been \ displayed titled 'Enter your coupn here".</t>
+  </si>
+  <si>
+    <t>Arrow is  indiacating downwards</t>
+  </si>
+  <si>
+    <t>Arrow is  indiacating upwards</t>
+  </si>
+  <si>
+    <t>Error message is  displayed "Coupan code is invalid expired or reached the limit"</t>
+  </si>
+  <si>
+    <t>Input field has been displayed titled 'Enter your gift code here".</t>
+  </si>
+  <si>
+    <t>Arrow is indicating downwards</t>
+  </si>
+  <si>
+    <t>Arrow is indicating upwards</t>
+  </si>
+  <si>
+    <t>Error message is displayed "gift certificate code is invalid expired or reached the limit"</t>
+  </si>
+  <si>
+    <t>Summar cart has been updated to and item should be added by 1 and the price should be updated according to the product price.</t>
+  </si>
+  <si>
+    <t>Price has been displayed in US Dollars</t>
+  </si>
+  <si>
+    <t>Price has been displayed in Euro</t>
+  </si>
+  <si>
+    <t>Price has been displayed in Pound Sterling</t>
+  </si>
+  <si>
+    <t>Message is  displayed no item Is added to the cart.</t>
+  </si>
+  <si>
+    <t>All the mentioned items are displayed properly</t>
+  </si>
+  <si>
+    <t>Added item has been removed and Summary bar should be updated to 0 all.</t>
+  </si>
+  <si>
+    <t>All the mentioned items are deleted  properly</t>
+  </si>
+  <si>
+    <t>User has been navigated to view cart page.</t>
+  </si>
+  <si>
+    <t>User has been navigated to checkout page.</t>
+  </si>
+  <si>
+    <t>all the items relevant to desktop link has been displayed below.</t>
+  </si>
+  <si>
+    <t>all the mentioned items has been displayed properly</t>
+  </si>
+  <si>
+    <t>User is navigated to compare this product page.</t>
+  </si>
+  <si>
+    <t>The Item has been displayed in grid style.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Item card has been displayed in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFEE0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>style.</t>
+    </r>
+  </si>
+  <si>
+    <t>All items has been displayed with the ascending order of alphabets.</t>
+  </si>
+  <si>
+    <t>All items has been displayed with the descending order of alphabets.</t>
+  </si>
+  <si>
+    <t>All items has been displayed with the ascending order of price.</t>
+  </si>
+  <si>
+    <t>All items has been displayed with the ascending order of rating.</t>
+  </si>
+  <si>
+    <t>All items has been displayed with the descending order of rating.</t>
+  </si>
+  <si>
+    <t>All items has been displayed with the ascending order of Model.</t>
+  </si>
+  <si>
+    <t>All items has been displayed with the descending order of Model.</t>
+  </si>
+  <si>
+    <t>Number in the show tab has beend isplayed 10,25,50,75,100</t>
+  </si>
+  <si>
+    <t>Maximum 12 numbers have been dsiplayed by default</t>
+  </si>
+  <si>
+    <t>selected number of items has been displayed or if less than all should be displayed</t>
+  </si>
+  <si>
+    <t>page has  navigated to the selected page number.</t>
+  </si>
+  <si>
+    <t>user is \redirected to previous page i.e page 1.</t>
+  </si>
+  <si>
+    <t>The previous button is  disabled and stop working.</t>
+  </si>
+  <si>
+    <t>User is  navigated to the next page ie. Page 2 and onwards.</t>
+  </si>
+  <si>
+    <t>The next button is  disabled and stop working.</t>
+  </si>
+  <si>
+    <t>No next or previous button has been displayed.</t>
+  </si>
+  <si>
+    <t>All the mentioned details has been displayed properly</t>
+  </si>
+  <si>
+    <t>Quantity of the items for sub heads has been displayed beside their relevant links.</t>
+  </si>
+  <si>
+    <t>All the items under Windows link has been displayed below according to the quantity  mentioned bseid the respective link.</t>
+  </si>
+  <si>
+    <t>message has been displayed about no items under this tab.</t>
+  </si>
+  <si>
+    <t>User is redirected to the home page.</t>
+  </si>
+  <si>
+    <t>All the items under Mac link has been displayed below.</t>
+  </si>
+  <si>
+    <t>Message ha been displayed in the top right corner of the page titled "you have added (name of the product ) to your shopping cart".</t>
+  </si>
+  <si>
+    <t>Message has been displayed in the top right corner of the page titled "you have added (name of the product ) to your Wish List".</t>
+  </si>
+  <si>
+    <t>Message has been  displayed in the top right corner of the page titled "you have added (name of the product ) to your product comparison".</t>
+  </si>
+  <si>
+    <t>selected product has been  open in detailed view in the page.</t>
+  </si>
+  <si>
+    <t>All the items related to the brand has been displayed in detailed view.</t>
+  </si>
+  <si>
+    <t>Message has been  displayed in the top right corner of the page titled "you have added (name of the product ) to your make comparison list".</t>
+  </si>
+  <si>
+    <t>Message has been  displayed in the top right corner of the page titled "you have added (name of the product ) to your shopping cart".</t>
+  </si>
+  <si>
+    <t>Messgage has been  displayed about selecting quantity.</t>
+  </si>
+  <si>
+    <t>Image has been  displayed in the fron of the screen with next and back arrow as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Image has been displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">previous Image has been displayed </t>
+  </si>
+  <si>
+    <t>the first image has been displayed again and so on.</t>
+  </si>
+  <si>
+    <t>the last image has been displayed again and so on.</t>
+  </si>
+  <si>
+    <t>respective clicked image has been displayed.</t>
+  </si>
+  <si>
+    <t>the rating and review tab has been  opened below the images .</t>
+  </si>
+  <si>
+    <t>the respective tab has been  opened upon clickng on it</t>
+  </si>
+  <si>
+    <t>Description tab is  displayed by default.</t>
+  </si>
+  <si>
+    <t>Specification tab details has been displayed.</t>
+  </si>
+  <si>
+    <t>User is redirected to home page.</t>
+  </si>
+  <si>
+    <t>Error has been displyed about the emtpy input fields.</t>
+  </si>
+  <si>
+    <t>No notification has been displayed about submitting review and ratting</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-8</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-9</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-10</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-11</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-12</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-13</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-14</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-15</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-16</t>
   </si>
 </sst>
 </file>
@@ -3703,7 +4096,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3845,6 +4238,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4163,8 +4559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85252F2-3AEE-49F2-BAD6-E960FB08B1A1}">
   <dimension ref="A2:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="F13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4760,8 +5156,596 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6C7363-2D5D-4868-8093-67F7E82ECE55}">
   <dimension ref="B3:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:H12"/>
+    <sheetView topLeftCell="C13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="30" style="5" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1"/>
+    <col min="10" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="K16" s="51" t="s">
+        <v>848</v>
+      </c>
+      <c r="L16" s="42" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="K17" s="51" t="s">
+        <v>848</v>
+      </c>
+      <c r="L17" s="42" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24"/>
+      <c r="G24" s="7"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25"/>
+      <c r="G25" s="7"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26" s="7"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27" s="7"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28" s="7"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456FC1FC-C776-42A8-A57D-0273C0FA9AB2}">
+  <dimension ref="A3:L31"/>
+  <sheetViews>
+    <sheetView topLeftCell="C22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4774,512 +5758,7 @@
     <col min="8" max="8" width="30" style="5" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-    </row>
-    <row r="21" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-    </row>
-    <row r="22" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-    </row>
-    <row r="23" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-    </row>
-    <row r="24" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24"/>
-      <c r="G24" s="7"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-    </row>
-    <row r="25" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25"/>
-      <c r="G25" s="7"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-    </row>
-    <row r="26" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="1"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26" s="7"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-    </row>
-    <row r="27" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="1"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27" s="7"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-    </row>
-    <row r="28" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="1"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28" s="7"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456FC1FC-C776-42A8-A57D-0273C0FA9AB2}">
-  <dimension ref="A3:L31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="30" style="5" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5343,6 +5822,12 @@
       <c r="H4" s="5" t="s">
         <v>658</v>
       </c>
+      <c r="I4" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -5369,6 +5854,12 @@
       <c r="H5" s="5" t="s">
         <v>627</v>
       </c>
+      <c r="I5" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -5395,6 +5886,12 @@
       <c r="H6" s="5" t="s">
         <v>630</v>
       </c>
+      <c r="I6" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -5421,6 +5918,12 @@
       <c r="H7" s="5" t="s">
         <v>632</v>
       </c>
+      <c r="I7" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -5447,6 +5950,12 @@
       <c r="H8" s="5" t="s">
         <v>636</v>
       </c>
+      <c r="I8" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -5473,6 +5982,12 @@
       <c r="H9" s="5" t="s">
         <v>640</v>
       </c>
+      <c r="I9" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -5499,6 +6014,12 @@
       <c r="H10" s="5" t="s">
         <v>643</v>
       </c>
+      <c r="I10" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -5525,6 +6046,12 @@
       <c r="H11" s="5" t="s">
         <v>589</v>
       </c>
+      <c r="I11" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -5551,6 +6078,12 @@
       <c r="H12" s="5" t="s">
         <v>594</v>
       </c>
+      <c r="I12" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -5577,6 +6110,12 @@
       <c r="H13" s="5" t="s">
         <v>595</v>
       </c>
+      <c r="I13" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -5603,6 +6142,12 @@
       <c r="H14" s="5" t="s">
         <v>660</v>
       </c>
+      <c r="I14" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -5629,6 +6174,12 @@
       <c r="H15" s="5" t="s">
         <v>669</v>
       </c>
+      <c r="I15" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -5655,6 +6206,12 @@
       <c r="H16" s="5" t="s">
         <v>674</v>
       </c>
+      <c r="I16" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -5681,6 +6238,12 @@
       <c r="H17" s="5" t="s">
         <v>679</v>
       </c>
+      <c r="I17" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -5707,6 +6270,12 @@
       <c r="H18" s="5" t="s">
         <v>682</v>
       </c>
+      <c r="I18" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -5733,7 +6302,12 @@
       <c r="H19" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -5763,6 +6337,13 @@
       <c r="I20" s="5" t="s">
         <v>691</v>
       </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="51" t="s">
+        <v>848</v>
+      </c>
+      <c r="L20" s="42" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -5789,6 +6370,12 @@
       <c r="H21" s="5" t="s">
         <v>696</v>
       </c>
+      <c r="I21" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -5815,6 +6402,12 @@
       <c r="H22" s="5" t="s">
         <v>700</v>
       </c>
+      <c r="I22" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="23" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -5841,9 +6434,13 @@
       <c r="H23" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="I23"/>
+      <c r="I23" s="5" t="s">
+        <v>890</v>
+      </c>
       <c r="J23"/>
-      <c r="K23"/>
+      <c r="K23" s="17" t="s">
+        <v>807</v>
+      </c>
       <c r="L23"/>
     </row>
     <row r="24" spans="1:12" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -5871,9 +6468,13 @@
       <c r="H24" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="I24"/>
+      <c r="I24" s="5" t="s">
+        <v>891</v>
+      </c>
       <c r="J24"/>
-      <c r="K24"/>
+      <c r="K24" s="17" t="s">
+        <v>807</v>
+      </c>
       <c r="L24"/>
     </row>
     <row r="25" spans="1:12" s="5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -5904,9 +6505,9 @@
       <c r="I25" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
+      <c r="K25" s="51" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="26" spans="1:12" s="5" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -5933,9 +6534,13 @@
       <c r="H26" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="I26"/>
+      <c r="I26" s="5" t="s">
+        <v>892</v>
+      </c>
       <c r="J26"/>
-      <c r="K26"/>
+      <c r="K26" s="17" t="s">
+        <v>807</v>
+      </c>
       <c r="L26"/>
     </row>
     <row r="27" spans="1:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -5960,9 +6565,13 @@
       <c r="H27" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="I27"/>
+      <c r="I27" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="J27"/>
-      <c r="K27"/>
+      <c r="K27" s="17" t="s">
+        <v>807</v>
+      </c>
       <c r="L27"/>
     </row>
     <row r="28" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6023,8 +6632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8CFD57-E432-491A-8ABD-6ECB66818D47}">
   <dimension ref="A3:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="D14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6037,7 +6646,7 @@
     <col min="8" max="8" width="35.5703125" style="5" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6101,6 +6710,12 @@
       <c r="H4" s="5" t="s">
         <v>723</v>
       </c>
+      <c r="I4" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -6124,6 +6739,12 @@
       <c r="H5" s="5" t="s">
         <v>736</v>
       </c>
+      <c r="I5" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -6146,6 +6767,12 @@
       </c>
       <c r="H6" s="5" t="s">
         <v>738</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -6171,6 +6798,12 @@
       <c r="H7" s="5" t="s">
         <v>737</v>
       </c>
+      <c r="I7" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -6194,6 +6827,12 @@
       <c r="H8" s="5" t="s">
         <v>742</v>
       </c>
+      <c r="I8" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
@@ -6216,6 +6855,12 @@
       </c>
       <c r="H9" s="5" t="s">
         <v>746</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -6241,6 +6886,12 @@
       <c r="H10" s="5" t="s">
         <v>751</v>
       </c>
+      <c r="I10" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -6264,6 +6915,12 @@
       <c r="H11" s="5" t="s">
         <v>756</v>
       </c>
+      <c r="I11" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -6286,6 +6943,12 @@
       </c>
       <c r="H12" s="5" t="s">
         <v>759</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -6311,6 +6974,12 @@
       <c r="H13" s="5" t="s">
         <v>764</v>
       </c>
+      <c r="I13" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
@@ -6334,6 +7003,12 @@
       <c r="H14" s="5" t="s">
         <v>768</v>
       </c>
+      <c r="I14" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -6356,6 +7031,12 @@
       </c>
       <c r="H15" s="5" t="s">
         <v>772</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -6380,6 +7061,12 @@
       </c>
       <c r="H16" s="5" t="s">
         <v>776</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -6558,8 +7245,1242 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA00A176-B6B3-414A-BBBE-5C3337E6A6E5}">
   <dimension ref="B3:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="30" style="5" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="240" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="2:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="2:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29"/>
+      <c r="G29" s="7"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+    </row>
+    <row r="30" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30"/>
+      <c r="G30" s="7"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31" s="7"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32" s="7"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+    </row>
+    <row r="33" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33" s="7"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E76FFC8-6AF5-45E9-91E5-6963CC9DEF37}">
+  <dimension ref="B3:L28"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="30" style="5" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24"/>
+      <c r="G24" s="7"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25"/>
+      <c r="G25" s="7"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26" s="7"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27" s="7"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28" s="7"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2325842-EA5D-4B3D-9CB2-62DF5EBB7CA5}">
+  <dimension ref="B3:L25"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6572,7 +8493,7 @@
     <col min="8" max="8" width="30" style="5" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6611,1071 +8532,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="240" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-    </row>
-    <row r="26" spans="2:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-    </row>
-    <row r="27" spans="2:12" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-    </row>
-    <row r="28" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-    </row>
-    <row r="29" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29"/>
-      <c r="G29" s="7"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-    </row>
-    <row r="30" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30"/>
-      <c r="G30" s="7"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-    </row>
-    <row r="31" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="1"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31" s="7"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-    </row>
-    <row r="32" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="1"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32" s="7"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-    </row>
-    <row r="33" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="1"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33" s="7"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E76FFC8-6AF5-45E9-91E5-6963CC9DEF37}">
-  <dimension ref="B3:L28"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="30" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="2:12" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-    </row>
-    <row r="21" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-    </row>
-    <row r="22" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-    </row>
-    <row r="23" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-    </row>
-    <row r="24" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24"/>
-      <c r="G24" s="7"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-    </row>
-    <row r="25" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25"/>
-      <c r="G25" s="7"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-    </row>
-    <row r="26" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="1"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26" s="7"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-    </row>
-    <row r="27" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="1"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27" s="7"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-    </row>
-    <row r="28" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="1"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28" s="7"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2325842-EA5D-4B3D-9CB2-62DF5EBB7CA5}">
-  <dimension ref="B3:L25"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="30" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="4" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>394</v>
@@ -7698,6 +8554,12 @@
       <c r="H4" s="5" t="s">
         <v>401</v>
       </c>
+      <c r="I4" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="5" spans="2:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -7720,6 +8582,12 @@
       </c>
       <c r="H5" s="5" t="s">
         <v>404</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -7919,8 +8787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A74004-07E3-46B5-B626-71584BF2F0C2}">
   <dimension ref="B3:XFD30"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7931,9 +8799,9 @@
     <col min="7" max="7" width="42.42578125" customWidth="1"/>
     <col min="8" max="8" width="30.42578125" style="7" customWidth="1"/>
     <col min="9" max="9" width="30" style="5" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8000,6 +8868,12 @@
       <c r="I4" s="5" t="s">
         <v>458</v>
       </c>
+      <c r="J4" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="5" spans="2:13" ht="105" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -8026,8 +8900,14 @@
       <c r="I5" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="J5" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>157</v>
       </c>
@@ -8052,8 +8932,14 @@
       <c r="I6" s="5" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="J6" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>158</v>
       </c>
@@ -8077,6 +8963,12 @@
       </c>
       <c r="I7" s="5" t="s">
         <v>467</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8104,6 +8996,12 @@
       <c r="I8" s="5" t="s">
         <v>471</v>
       </c>
+      <c r="J8" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="9" spans="2:13" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
@@ -8130,6 +9028,12 @@
       <c r="I9" s="5" t="s">
         <v>475</v>
       </c>
+      <c r="J9" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="10" spans="2:13" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -8156,8 +9060,14 @@
       <c r="I10" s="5" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="J10" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>480</v>
       </c>
@@ -8182,8 +9092,14 @@
       <c r="I11" s="5" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="J11" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="105" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>483</v>
       </c>
@@ -8207,6 +9123,12 @@
       </c>
       <c r="I12" s="5" t="s">
         <v>486</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="90" x14ac:dyDescent="0.25">
@@ -8234,6 +9156,12 @@
       <c r="I13" s="5" t="s">
         <v>464</v>
       </c>
+      <c r="J13" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="14" spans="2:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
@@ -8260,6 +9188,12 @@
       <c r="I14" s="5" t="s">
         <v>494</v>
       </c>
+      <c r="J14" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="15" spans="2:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -8286,6 +9220,12 @@
       <c r="I15" s="5" t="s">
         <v>498</v>
       </c>
+      <c r="J15" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="16" spans="2:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
@@ -8312,6 +9252,12 @@
       <c r="I16" s="5" t="s">
         <v>502</v>
       </c>
+      <c r="J16" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="17" spans="2:13 16384:16384" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
@@ -8338,9 +9284,13 @@
       <c r="I17" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="J17"/>
+      <c r="J17" s="5" t="s">
+        <v>940</v>
+      </c>
       <c r="K17"/>
-      <c r="L17"/>
+      <c r="L17" s="17" t="s">
+        <v>807</v>
+      </c>
       <c r="M17"/>
     </row>
     <row r="18" spans="2:13 16384:16384" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -8368,9 +9318,13 @@
       <c r="I18" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="J18"/>
+      <c r="J18" s="5" t="s">
+        <v>941</v>
+      </c>
       <c r="K18"/>
-      <c r="L18"/>
+      <c r="L18" s="17" t="s">
+        <v>807</v>
+      </c>
       <c r="M18"/>
     </row>
     <row r="19" spans="2:13 16384:16384" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -8398,9 +9352,13 @@
       <c r="I19" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="J19"/>
+      <c r="J19" s="5" t="s">
+        <v>942</v>
+      </c>
       <c r="K19"/>
-      <c r="L19"/>
+      <c r="L19" s="17" t="s">
+        <v>807</v>
+      </c>
       <c r="M19"/>
     </row>
     <row r="20" spans="2:13 16384:16384" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -8428,9 +9386,13 @@
       <c r="I20" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="J20"/>
+      <c r="J20" s="5" t="s">
+        <v>943</v>
+      </c>
       <c r="K20"/>
-      <c r="L20"/>
+      <c r="L20" s="17" t="s">
+        <v>807</v>
+      </c>
       <c r="M20"/>
     </row>
     <row r="21" spans="2:13 16384:16384" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -8458,9 +9420,13 @@
       <c r="I21" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="J21"/>
+      <c r="J21" s="5" t="s">
+        <v>944</v>
+      </c>
       <c r="K21"/>
-      <c r="L21"/>
+      <c r="L21" s="17" t="s">
+        <v>807</v>
+      </c>
       <c r="M21"/>
     </row>
     <row r="22" spans="2:13 16384:16384" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -8488,9 +9454,13 @@
       <c r="I22" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="J22"/>
+      <c r="J22" s="5" t="s">
+        <v>945</v>
+      </c>
       <c r="K22"/>
-      <c r="L22"/>
+      <c r="L22" s="17" t="s">
+        <v>807</v>
+      </c>
       <c r="M22"/>
     </row>
     <row r="23" spans="2:13 16384:16384" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -8518,9 +9488,13 @@
       <c r="I23" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="J23"/>
+      <c r="J23" s="5" t="s">
+        <v>946</v>
+      </c>
       <c r="K23"/>
-      <c r="L23"/>
+      <c r="L23" s="17" t="s">
+        <v>807</v>
+      </c>
       <c r="M23"/>
     </row>
     <row r="24" spans="2:13 16384:16384" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -8548,9 +9522,13 @@
       <c r="I24" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="J24"/>
+      <c r="J24" s="5" t="s">
+        <v>947</v>
+      </c>
       <c r="K24"/>
-      <c r="L24"/>
+      <c r="L24" s="17" t="s">
+        <v>807</v>
+      </c>
       <c r="M24"/>
     </row>
     <row r="25" spans="2:13 16384:16384" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -8578,9 +9556,13 @@
       <c r="I25" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J25"/>
+      <c r="J25" s="5" t="s">
+        <v>924</v>
+      </c>
       <c r="K25"/>
-      <c r="L25"/>
+      <c r="L25" s="17" t="s">
+        <v>807</v>
+      </c>
       <c r="M25"/>
     </row>
     <row r="26" spans="2:13 16384:16384" ht="105" x14ac:dyDescent="0.25">
@@ -8608,6 +9590,12 @@
       <c r="I26" s="5" t="s">
         <v>543</v>
       </c>
+      <c r="J26" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>807</v>
+      </c>
       <c r="XFD26" s="5"/>
     </row>
     <row r="27" spans="2:13 16384:16384" ht="105" x14ac:dyDescent="0.25">
@@ -8635,6 +9623,12 @@
       <c r="I27" s="5" t="s">
         <v>550</v>
       </c>
+      <c r="J27" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="28" spans="2:13 16384:16384" ht="90" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
@@ -8661,6 +9655,12 @@
       <c r="I28" s="5" t="s">
         <v>551</v>
       </c>
+      <c r="J28" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="29" spans="2:13 16384:16384" ht="120" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
@@ -8687,6 +9687,12 @@
       <c r="I29" s="5" t="s">
         <v>556</v>
       </c>
+      <c r="J29" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="30" spans="2:13 16384:16384" ht="120" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
@@ -8713,809 +9719,15 @@
       <c r="I30" s="5" t="s">
         <v>560</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BCB05C-71B8-4924-8F00-29FEE6F8C5FF}">
-  <dimension ref="B3:XFD30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="6" width="37.7109375" customWidth="1"/>
-    <col min="7" max="7" width="42.42578125" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="30" style="5" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13 16384:16384" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-    </row>
-    <row r="18" spans="2:13 16384:16384" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-    </row>
-    <row r="19" spans="2:13 16384:16384" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-    </row>
-    <row r="20" spans="2:13 16384:16384" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-    </row>
-    <row r="21" spans="2:13 16384:16384" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-    </row>
-    <row r="22" spans="2:13 16384:16384" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-    </row>
-    <row r="23" spans="2:13 16384:16384" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-    </row>
-    <row r="24" spans="2:13 16384:16384" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-    </row>
-    <row r="25" spans="2:13 16384:16384" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-    </row>
-    <row r="26" spans="2:13 16384:16384" ht="105" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="XFD26" s="5"/>
-    </row>
-    <row r="27" spans="2:13 16384:16384" ht="105" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13 16384:16384" ht="90" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13 16384:16384" ht="120" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13 16384:16384" ht="120" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>560</v>
+      <c r="J30" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="51" t="s">
+        <v>848</v>
+      </c>
+      <c r="M30" s="42" t="s">
+        <v>959</v>
       </c>
     </row>
   </sheetData>
@@ -9527,8 +9739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D7893C-385B-435C-9500-3ED4A927959E}">
   <dimension ref="A3:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="E9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9942,8 +10154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3F0C6E-4F83-4248-808F-F0D11C501F8D}">
   <dimension ref="A3:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10272,8 +10484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5DFD4C-8D59-4777-A6F8-A9BF350FBD3E}">
   <dimension ref="A3:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="D9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10697,8 +10909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EAE3C3-64BE-43DC-AD43-5808A45074C1}">
   <dimension ref="B3:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="D5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10998,8 +11210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694B4E51-C725-4662-8C4E-E8415D3E6DC8}">
   <dimension ref="B3:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="F3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11270,8 +11482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6803A502-0750-40C8-AFEB-FF6B5A00697A}">
   <dimension ref="B3:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="E12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11843,8 +12055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4AAFB82-77EE-4783-928F-4A964EE8FE2B}">
   <dimension ref="B3:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="F8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11855,9 +12067,9 @@
     <col min="6" max="6" width="42.42578125" customWidth="1"/>
     <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
     <col min="8" max="8" width="30" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11918,6 +12130,12 @@
       <c r="H4" s="5" t="s">
         <v>238</v>
       </c>
+      <c r="I4" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="5" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -11941,6 +12159,12 @@
       <c r="H5" s="5" t="s">
         <v>242</v>
       </c>
+      <c r="I5" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="6" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -11964,6 +12188,12 @@
       <c r="H6" s="5" t="s">
         <v>246</v>
       </c>
+      <c r="I6" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="7" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -11987,6 +12217,12 @@
       <c r="H7" s="5" t="s">
         <v>253</v>
       </c>
+      <c r="I7" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="8" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -12010,6 +12246,15 @@
       <c r="H8" s="5" t="s">
         <v>257</v>
       </c>
+      <c r="I8" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="K8" s="51" t="s">
+        <v>848</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="9" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
@@ -12033,6 +12278,15 @@
       <c r="H9" s="5" t="s">
         <v>257</v>
       </c>
+      <c r="I9" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="K9" s="51" t="s">
+        <v>848</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row r="10" spans="2:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -12056,6 +12310,15 @@
       <c r="H10" s="5" t="s">
         <v>257</v>
       </c>
+      <c r="I10" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="K10" s="51" t="s">
+        <v>848</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="11" spans="2:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -12079,8 +12342,14 @@
       <c r="H11" s="5" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="I11" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>271</v>
       </c>
@@ -12093,15 +12362,23 @@
       <c r="E12" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>268</v>
+      </c>
       <c r="G12" s="1" t="s">
         <v>269</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="I12" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>274</v>
       </c>
@@ -12114,12 +12391,20 @@
       <c r="E13" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>849</v>
+      </c>
       <c r="G13" s="1" t="s">
         <v>276</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>277</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -12246,8 +12531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52A0115-4F76-49B9-A20E-AD5BE1DD9878}">
   <dimension ref="B3:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="F13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12258,9 +12543,9 @@
     <col min="6" max="6" width="42.42578125" customWidth="1"/>
     <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
     <col min="8" max="8" width="30" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12321,6 +12606,12 @@
       <c r="H4" s="5" t="s">
         <v>316</v>
       </c>
+      <c r="I4" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="5" spans="2:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -12344,6 +12635,12 @@
       <c r="H5" s="5" t="s">
         <v>291</v>
       </c>
+      <c r="I5" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="6" spans="2:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -12367,6 +12664,12 @@
       <c r="H6" s="5" t="s">
         <v>295</v>
       </c>
+      <c r="I6" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="7" spans="2:12" ht="165" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -12390,6 +12693,12 @@
       <c r="H7" s="5" t="s">
         <v>319</v>
       </c>
+      <c r="I7" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="8" spans="2:12" ht="165" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -12413,6 +12722,12 @@
       <c r="H8" s="5" t="s">
         <v>319</v>
       </c>
+      <c r="I8" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="9" spans="2:12" ht="135" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
@@ -12436,6 +12751,12 @@
       <c r="H9" s="5" t="s">
         <v>327</v>
       </c>
+      <c r="I9" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="10" spans="2:12" ht="165" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -12459,6 +12780,15 @@
       <c r="H10" s="5" t="s">
         <v>331</v>
       </c>
+      <c r="I10" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="K10" s="51" t="s">
+        <v>848</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>954</v>
+      </c>
     </row>
     <row r="11" spans="2:12" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -12482,6 +12812,12 @@
       <c r="H11" s="5" t="s">
         <v>299</v>
       </c>
+      <c r="I11" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="12" spans="2:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -12505,6 +12841,12 @@
       <c r="H12" s="5" t="s">
         <v>303</v>
       </c>
+      <c r="I12" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="13" spans="2:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -12528,6 +12870,12 @@
       <c r="H13" s="5" t="s">
         <v>305</v>
       </c>
+      <c r="I13" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="14" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
@@ -12551,6 +12899,12 @@
       <c r="H14" s="5" t="s">
         <v>308</v>
       </c>
+      <c r="I14" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="15" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -12574,6 +12928,12 @@
       <c r="H15" s="5" t="s">
         <v>311</v>
       </c>
+      <c r="I15" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="16" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
@@ -12596,6 +12956,15 @@
       </c>
       <c r="H16" s="5" t="s">
         <v>315</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="K16" s="51" t="s">
+        <v>848</v>
+      </c>
+      <c r="L16" s="42" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
